--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1050.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1050.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.037919132053629</v>
+        <v>1.415158152580261</v>
       </c>
       <c r="B1">
-        <v>2.27976457388063</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.916789283655242</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.735889040965066</v>
+        <v>1.319123029708862</v>
       </c>
       <c r="E1">
-        <v>1.48766548883431</v>
+        <v>0.8768414855003357</v>
       </c>
     </row>
   </sheetData>
